--- a/data/trans_orig/P34_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>262641</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>240739</v>
+        <v>240276</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>284090</v>
+        <v>283829</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5340748731424509</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4895380226309752</v>
+        <v>0.4885964311401981</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.577691942175127</v>
+        <v>0.5771610111253448</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>264</v>
@@ -765,19 +765,19 @@
         <v>246077</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>223658</v>
+        <v>223145</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>266474</v>
+        <v>266636</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.532777667778442</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4842392930741392</v>
+        <v>0.4831285418874213</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5769392443509669</v>
+        <v>0.5772905279036523</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>537</v>
@@ -786,19 +786,19 @@
         <v>508718</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>477715</v>
+        <v>475333</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>538393</v>
+        <v>540516</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5334466021101243</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5009368140142056</v>
+        <v>0.4984392049644959</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.564564242537926</v>
+        <v>0.5667902453707065</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>229127</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>207678</v>
+        <v>207939</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>251029</v>
+        <v>251492</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4659251268575491</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4223080578248732</v>
+        <v>0.4228389888746552</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5104619773690248</v>
+        <v>0.5114035688598019</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>219</v>
@@ -836,19 +836,19 @@
         <v>215798</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>195401</v>
+        <v>195239</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>238217</v>
+        <v>238730</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.467222332221558</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4230607556490332</v>
+        <v>0.4227094720963477</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5157607069258608</v>
+        <v>0.5168714581125787</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>443</v>
@@ -857,19 +857,19 @@
         <v>444925</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>415250</v>
+        <v>413127</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>475928</v>
+        <v>478310</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4665533978898757</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4354357574620739</v>
+        <v>0.4332097546292936</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4990631859857944</v>
+        <v>0.501560795035504</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>247245</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>222855</v>
+        <v>222193</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>274994</v>
+        <v>272956</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3395564776537339</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3060592936517902</v>
+        <v>0.3051505644102271</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3776659566508113</v>
+        <v>0.3748658751942167</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>173</v>
@@ -982,19 +982,19 @@
         <v>179490</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>157530</v>
+        <v>157694</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>202474</v>
+        <v>205048</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2892723072898902</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.253881814096739</v>
+        <v>0.2541455425419629</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.326315303819921</v>
+        <v>0.3304635785907699</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>417</v>
@@ -1003,19 +1003,19 @@
         <v>426735</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>395805</v>
+        <v>393091</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>461343</v>
+        <v>463389</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3164213754282798</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2934867397522772</v>
+        <v>0.2914746467475263</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3420830612148704</v>
+        <v>0.343600320210833</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>480897</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>453148</v>
+        <v>455186</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>505287</v>
+        <v>505949</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6604435223462661</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6223340433491887</v>
+        <v>0.6251341248057832</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6939407063482097</v>
+        <v>0.6948494355897729</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>413</v>
@@ -1053,19 +1053,19 @@
         <v>440997</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>418013</v>
+        <v>415439</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>462957</v>
+        <v>462793</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7107276927101098</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.673684696180079</v>
+        <v>0.6695364214092301</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7461181859032611</v>
+        <v>0.7458544574580371</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>865</v>
@@ -1074,19 +1074,19 @@
         <v>921894</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>887286</v>
+        <v>885240</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>952824</v>
+        <v>955538</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6835786245717201</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6579169387851296</v>
+        <v>0.6563996797891672</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7065132602477228</v>
+        <v>0.7085253532524738</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>164424</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>144918</v>
+        <v>142984</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>187676</v>
+        <v>188689</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2589660830199396</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2282444601840556</v>
+        <v>0.2251978934622973</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.295586918160995</v>
+        <v>0.2971827754281952</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>119</v>
@@ -1199,19 +1199,19 @@
         <v>128413</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>108517</v>
+        <v>109005</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>150032</v>
+        <v>153227</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1875237046209851</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1584698179934098</v>
+        <v>0.1591819735706695</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2190948594857074</v>
+        <v>0.2237602423606007</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>280</v>
@@ -1220,19 +1220,19 @@
         <v>292837</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>262663</v>
+        <v>264474</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>324751</v>
+        <v>324650</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2218953746125713</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1990309322303037</v>
+        <v>0.2004031047792228</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2460782932344498</v>
+        <v>0.246001191409668</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>470501</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>447249</v>
+        <v>446236</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>490007</v>
+        <v>491941</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7410339169800604</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.704413081839005</v>
+        <v>0.7028172245718047</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7717555398159442</v>
+        <v>0.7748021065377025</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>535</v>
@@ -1270,19 +1270,19 @@
         <v>556370</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>534751</v>
+        <v>531556</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>576266</v>
+        <v>575778</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8124762953790149</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7809051405142926</v>
+        <v>0.7762397576393993</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8415301820065902</v>
+        <v>0.8408180264293305</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>983</v>
@@ -1291,19 +1291,19 @@
         <v>1026871</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>994957</v>
+        <v>995058</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1057045</v>
+        <v>1055234</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7781046253874286</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7539217067655501</v>
+        <v>0.7539988085903321</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8009690677696962</v>
+        <v>0.7995968952207773</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>168119</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>147012</v>
+        <v>146163</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>189284</v>
+        <v>191686</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3284637283262514</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.287224477686882</v>
+        <v>0.2855670761452242</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3698149177350903</v>
+        <v>0.3745082032304262</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>76</v>
@@ -1416,19 +1416,19 @@
         <v>78116</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63147</v>
+        <v>63004</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96863</v>
+        <v>95008</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1517842538035734</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1226985343991588</v>
+        <v>0.1224208521461294</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1882111444724751</v>
+        <v>0.1846072538395171</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>232</v>
@@ -1437,19 +1437,19 @@
         <v>246235</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>219579</v>
+        <v>219083</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>275656</v>
+        <v>276631</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2398815775440472</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2139130584596698</v>
+        <v>0.2134298427790259</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2685437493051628</v>
+        <v>0.2694931809159326</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>343716</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>322551</v>
+        <v>320149</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>364823</v>
+        <v>365672</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6715362716737486</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6301850822649095</v>
+        <v>0.6254917967695739</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.712775522313118</v>
+        <v>0.714432923854776</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>425</v>
@@ -1487,19 +1487,19 @@
         <v>436536</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>417789</v>
+        <v>419644</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>451505</v>
+        <v>451648</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8482157461964266</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8117888555275251</v>
+        <v>0.8153927461604832</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8773014656008413</v>
+        <v>0.8775791478538708</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>746</v>
@@ -1508,19 +1508,19 @@
         <v>780251</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>750830</v>
+        <v>749855</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>806907</v>
+        <v>807403</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7601184224559528</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7314562506948372</v>
+        <v>0.7305068190840674</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7860869415403302</v>
+        <v>0.7865701572209743</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>131924</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>114362</v>
+        <v>113597</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>149786</v>
+        <v>149375</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3433169216327812</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2976154114820542</v>
+        <v>0.29562307454511</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3898025064581844</v>
+        <v>0.3887319249933292</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>87</v>
@@ -1633,19 +1633,19 @@
         <v>90187</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>74920</v>
+        <v>74089</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>106914</v>
+        <v>107813</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2243280105012807</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1863516322177749</v>
+        <v>0.1842863690188173</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2659322756205857</v>
+        <v>0.2681683268039108</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>222</v>
@@ -1654,19 +1654,19 @@
         <v>222111</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>196755</v>
+        <v>199297</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>247439</v>
+        <v>248534</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2824777127935376</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2502306379635064</v>
+        <v>0.2534627489803215</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3146899737393275</v>
+        <v>0.3160821931738314</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>252338</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>234476</v>
+        <v>234887</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>269900</v>
+        <v>270665</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6566830783672188</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6101974935418155</v>
+        <v>0.6112680750066708</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7023845885179458</v>
+        <v>0.7043769254548898</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>307</v>
@@ -1704,19 +1704,19 @@
         <v>311847</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>295120</v>
+        <v>294221</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>327114</v>
+        <v>327945</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7756719894987193</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7340677243794143</v>
+        <v>0.7318316731960894</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.813648367782225</v>
+        <v>0.8157136309811837</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>562</v>
@@ -1725,19 +1725,19 @@
         <v>564185</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>538857</v>
+        <v>537762</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>589541</v>
+        <v>586999</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7175222872064624</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6853100262606725</v>
+        <v>0.683917806826169</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7497693620364939</v>
+        <v>0.7465372510196787</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>144448</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>128025</v>
+        <v>126612</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>160507</v>
+        <v>159910</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.508401648256872</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4505976381563183</v>
+        <v>0.4456250058402204</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5649216837428108</v>
+        <v>0.5628201409677961</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>141</v>
@@ -1850,19 +1850,19 @@
         <v>131742</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>114574</v>
+        <v>114503</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>147584</v>
+        <v>149213</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3861723526185386</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3358496904484731</v>
+        <v>0.3356402817551293</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4326099433363073</v>
+        <v>0.4373854333683088</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>291</v>
@@ -1871,19 +1871,19 @@
         <v>276190</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>253688</v>
+        <v>252146</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>301273</v>
+        <v>300503</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4417133510733307</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4057263942800539</v>
+        <v>0.4032603292898702</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4818286503925743</v>
+        <v>0.4805980639777716</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>139674</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>123615</v>
+        <v>124212</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>156097</v>
+        <v>157510</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.491598351743128</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4350783162571891</v>
+        <v>0.437179859032204</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5494023618436816</v>
+        <v>0.5543749941597796</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>228</v>
@@ -1921,19 +1921,19 @@
         <v>209405</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>193563</v>
+        <v>191934</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>226573</v>
+        <v>226644</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6138276473814614</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5673900566636932</v>
+        <v>0.5626145666316913</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6641503095515271</v>
+        <v>0.6643597182448705</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>372</v>
@@ -1942,19 +1942,19 @@
         <v>349079</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>323996</v>
+        <v>324766</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>371581</v>
+        <v>373123</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5582866489266693</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5181713496074256</v>
+        <v>0.5194019360222283</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.594273605719946</v>
+        <v>0.5967396707101297</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>138494</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>124708</v>
+        <v>124271</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>150880</v>
+        <v>151122</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6654642549102113</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5992258174913515</v>
+        <v>0.5971222576612734</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.724979101249562</v>
+        <v>0.7261411276781645</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>169</v>
@@ -2067,19 +2067,19 @@
         <v>194117</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>176271</v>
+        <v>174465</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>213272</v>
+        <v>211882</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5914438775454065</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5370679026103969</v>
+        <v>0.5315678865404148</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6498045019972702</v>
+        <v>0.6455696217351607</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>311</v>
@@ -2088,19 +2088,19 @@
         <v>332612</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>308119</v>
+        <v>308840</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>353128</v>
+        <v>354439</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6201668381106075</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5744985563240783</v>
+        <v>0.5758442370070227</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6584205992913829</v>
+        <v>0.6608650520984254</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>69622</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>57236</v>
+        <v>56994</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>83408</v>
+        <v>83845</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3345357450897887</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2750208987504382</v>
+        <v>0.2738588723218359</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4007741825086485</v>
+        <v>0.4028777423387268</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>116</v>
@@ -2138,19 +2138,19 @@
         <v>134092</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>114937</v>
+        <v>116327</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>151938</v>
+        <v>153744</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4085561224545936</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3501954980027298</v>
+        <v>0.3544303782648393</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4629320973896029</v>
+        <v>0.4684321134595852</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>192</v>
@@ -2159,19 +2159,19 @@
         <v>203714</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>183198</v>
+        <v>181887</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>228207</v>
+        <v>227486</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3798331618893926</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3415794007086172</v>
+        <v>0.3391349479015746</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4255014436759217</v>
+        <v>0.4241557629929774</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>1257296</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1197769</v>
+        <v>1205613</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1312240</v>
+        <v>1318786</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3876747984372205</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3693203380989286</v>
+        <v>0.3717388337818524</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4046164673415439</v>
+        <v>0.4066347531794666</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1029</v>
@@ -2284,19 +2284,19 @@
         <v>1048141</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>997421</v>
+        <v>996949</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1101150</v>
+        <v>1099726</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3125807779298274</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2974546558524602</v>
+        <v>0.2973140839825996</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3283892909791853</v>
+        <v>0.3279646088152955</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2290</v>
@@ -2305,19 +2305,19 @@
         <v>2305437</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2232094</v>
+        <v>2219513</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2378820</v>
+        <v>2380012</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3495015724036676</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3383829094224306</v>
+        <v>0.3364755464362655</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3606263779104635</v>
+        <v>0.3608071005435427</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>1985875</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1930931</v>
+        <v>1924385</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2045402</v>
+        <v>2037558</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6123252015627795</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5953835326584561</v>
+        <v>0.5933652468205334</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6306796619010714</v>
+        <v>0.6282611662181478</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2243</v>
@@ -2355,19 +2355,19 @@
         <v>2305045</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2252036</v>
+        <v>2253460</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2355765</v>
+        <v>2356237</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6874192220701727</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6716107090208148</v>
+        <v>0.6720353911847045</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7025453441475398</v>
+        <v>0.7026859160174004</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4163</v>
@@ -2376,19 +2376,19 @@
         <v>4290920</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4217537</v>
+        <v>4216345</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4364263</v>
+        <v>4376844</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6504984275963324</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6393736220895365</v>
+        <v>0.6391928994564573</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6616170905775692</v>
+        <v>0.6635244535637345</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>186713</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>166721</v>
+        <v>167519</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>206171</v>
+        <v>209162</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4127713185791878</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3685740995752757</v>
+        <v>0.3703378796473544</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4557875245157112</v>
+        <v>0.4624005244134584</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>179</v>
@@ -2744,19 +2744,19 @@
         <v>183335</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>162669</v>
+        <v>163631</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>203408</v>
+        <v>204426</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4325503004360479</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3837920866618655</v>
+        <v>0.3860634857572924</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4799102274799701</v>
+        <v>0.4823117616252394</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>365</v>
@@ -2765,19 +2765,19 @@
         <v>370048</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>338080</v>
+        <v>340652</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>396804</v>
+        <v>400577</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4223391942919038</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3858544681977245</v>
+        <v>0.3887895150218613</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4528762806882948</v>
+        <v>0.4571821980462744</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>265627</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>246169</v>
+        <v>243178</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>285619</v>
+        <v>284821</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5872286814208123</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5442124754842891</v>
+        <v>0.5375994755865418</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6314259004247244</v>
+        <v>0.6296621203526453</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>236</v>
@@ -2815,19 +2815,19 @@
         <v>240511</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>220438</v>
+        <v>219420</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>261177</v>
+        <v>260215</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5674496995639521</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5200897725200296</v>
+        <v>0.5176882383747604</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6162079133381344</v>
+        <v>0.6139365142427076</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>494</v>
@@ -2836,19 +2836,19 @@
         <v>506138</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>479382</v>
+        <v>475609</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>538106</v>
+        <v>535534</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5776608057080963</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.547123719311705</v>
+        <v>0.5428178019537255</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6141455318022753</v>
+        <v>0.6112104849781387</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>181356</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>159262</v>
+        <v>159261</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>205157</v>
+        <v>204969</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2678175058818274</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2351903607161667</v>
+        <v>0.2351886537098355</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3029656729214104</v>
+        <v>0.3026878414486754</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>129</v>
@@ -2961,19 +2961,19 @@
         <v>138770</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>117379</v>
+        <v>117638</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>158632</v>
+        <v>161720</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2291704878876558</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1938438039082531</v>
+        <v>0.1942722622331344</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2619714453037443</v>
+        <v>0.2670708645916757</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>306</v>
@@ -2982,19 +2982,19 @@
         <v>320126</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>288479</v>
+        <v>288244</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>353908</v>
+        <v>351452</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.249573115971249</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2249006610945375</v>
+        <v>0.2247170194847523</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2759091216980107</v>
+        <v>0.2739943862335786</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>495808</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>472007</v>
+        <v>472195</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>517902</v>
+        <v>517903</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7321824941181726</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6970343270785896</v>
+        <v>0.6973121585513244</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7648096392838333</v>
+        <v>0.7648113462901645</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>438</v>
@@ -3032,19 +3032,19 @@
         <v>466762</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>446900</v>
+        <v>443812</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>488153</v>
+        <v>487894</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7708295121123442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7380285546962557</v>
+        <v>0.7329291354083244</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8061561960917469</v>
+        <v>0.8057277377668656</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>918</v>
@@ -3053,19 +3053,19 @@
         <v>962570</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>928788</v>
+        <v>931244</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>994217</v>
+        <v>994452</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.750426884028751</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7240908783019893</v>
+        <v>0.7260056137664217</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7750993389054625</v>
+        <v>0.775282980515248</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>162024</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>137610</v>
+        <v>138311</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>188295</v>
+        <v>186215</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.238731153946424</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2027584983785132</v>
+        <v>0.2037916819129648</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2774396466339898</v>
+        <v>0.2743747532370131</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>103</v>
@@ -3178,19 +3178,19 @@
         <v>108054</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>88258</v>
+        <v>91949</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>126778</v>
+        <v>128767</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1532033981633331</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1251363387768304</v>
+        <v>0.1303696661183339</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1797508413883738</v>
+        <v>0.182571740768376</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>255</v>
@@ -3199,19 +3199,19 @@
         <v>270078</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>242262</v>
+        <v>241734</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>304205</v>
+        <v>300075</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1951450697273422</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1750468538527269</v>
+        <v>0.1746649600053434</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2198033392440766</v>
+        <v>0.2168192344831537</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>516664</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>490393</v>
+        <v>492473</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>541078</v>
+        <v>540377</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.761268846053576</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7225603533660101</v>
+        <v>0.7256252467629869</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7972415016214868</v>
+        <v>0.7962083180870352</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>559</v>
@@ -3249,19 +3249,19 @@
         <v>597244</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>578520</v>
+        <v>576531</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>617040</v>
+        <v>613349</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8467966018366669</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8202491586116262</v>
+        <v>0.8174282592316238</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8748636612231695</v>
+        <v>0.8696303338816659</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1055</v>
@@ -3270,19 +3270,19 @@
         <v>1113908</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1079781</v>
+        <v>1083911</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1141724</v>
+        <v>1142252</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8048549302726578</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7801966607559235</v>
+        <v>0.783180765516846</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8249531461472732</v>
+        <v>0.8253350399946566</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>160191</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>137628</v>
+        <v>136392</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>183703</v>
+        <v>186259</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2618906432080244</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2250032421455539</v>
+        <v>0.2229830807703905</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3003307416860339</v>
+        <v>0.3045095617365933</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>94</v>
@@ -3395,19 +3395,19 @@
         <v>110602</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>93093</v>
+        <v>90924</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>135491</v>
+        <v>132143</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1798026491797405</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1513381927488459</v>
+        <v>0.1478125271938833</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2202637004651985</v>
+        <v>0.2148198221339976</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>237</v>
@@ -3416,19 +3416,19 @@
         <v>270793</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>239976</v>
+        <v>241335</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>303242</v>
+        <v>305409</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2207308384591522</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1956108164738387</v>
+        <v>0.1967189598648839</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2471807404975035</v>
+        <v>0.2489476250598608</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>451479</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>427967</v>
+        <v>425411</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>474042</v>
+        <v>475278</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7381093567919756</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6996692583139664</v>
+        <v>0.6954904382634067</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7749967578544462</v>
+        <v>0.7770169192296095</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>444</v>
@@ -3466,19 +3466,19 @@
         <v>504530</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>479641</v>
+        <v>482989</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>522039</v>
+        <v>524208</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8201973508202595</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7797362995348021</v>
+        <v>0.7851801778660024</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.848661807251155</v>
+        <v>0.8521874728061166</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>846</v>
@@ -3487,19 +3487,19 @@
         <v>956009</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>923560</v>
+        <v>921393</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>986826</v>
+        <v>985467</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7792691615408478</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7528192595024964</v>
+        <v>0.7510523749401391</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8043891835261613</v>
+        <v>0.8032810401351161</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>110280</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>91910</v>
+        <v>92972</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>130369</v>
+        <v>129343</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2590005744330662</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2158570325962212</v>
+        <v>0.2183521033818949</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3061808717893605</v>
+        <v>0.3037718223158759</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>95</v>
@@ -3612,19 +3612,19 @@
         <v>103735</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>85420</v>
+        <v>85251</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>122134</v>
+        <v>122781</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2332606549604916</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1920773386144818</v>
+        <v>0.1916960680094628</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.274632909148946</v>
+        <v>0.2760875937105898</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>196</v>
@@ -3633,19 +3633,19 @@
         <v>214016</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>187673</v>
+        <v>189214</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>240640</v>
+        <v>239809</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2458507714725707</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2155894648154866</v>
+        <v>0.2173594985245417</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2764362026729169</v>
+        <v>0.2754811708695839</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>315511</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>295422</v>
+        <v>296448</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>333881</v>
+        <v>332819</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7409994255669339</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6938191282106395</v>
+        <v>0.696228177684124</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7841429674037788</v>
+        <v>0.7816478966181051</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>308</v>
@@ -3683,19 +3683,19 @@
         <v>340984</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>322585</v>
+        <v>321938</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>359299</v>
+        <v>359468</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7667393450395084</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7253670908510541</v>
+        <v>0.7239124062894101</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8079226613855184</v>
+        <v>0.8083039319905372</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>597</v>
@@ -3704,19 +3704,19 @@
         <v>656494</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>629870</v>
+        <v>630701</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>682837</v>
+        <v>681296</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7541492285274293</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7235637973270831</v>
+        <v>0.7245188291304161</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7844105351845133</v>
+        <v>0.7826405014754583</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>132630</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>115328</v>
+        <v>115745</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>151735</v>
+        <v>156776</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4296582401375486</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3736057417448007</v>
+        <v>0.3749566351455744</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4915473319029972</v>
+        <v>0.50787735678157</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>134</v>
@@ -3829,19 +3829,19 @@
         <v>138082</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>121044</v>
+        <v>118542</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>156870</v>
+        <v>156796</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3943480268200624</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3456899946063933</v>
+        <v>0.3385456051301628</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4480051462163109</v>
+        <v>0.4477931199233388</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>249</v>
@@ -3850,19 +3850,19 @@
         <v>270712</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>245466</v>
+        <v>245259</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>297225</v>
+        <v>298645</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4108919933173315</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.372573263896772</v>
+        <v>0.3722586192018282</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4511335999679339</v>
+        <v>0.4532891858863175</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>176058</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>156953</v>
+        <v>151912</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>193360</v>
+        <v>192943</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5703417598624514</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5084526680970028</v>
+        <v>0.4921226432184304</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6263942582551996</v>
+        <v>0.6250433648544258</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>206</v>
@@ -3900,19 +3900,19 @@
         <v>212070</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>193282</v>
+        <v>193356</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>229108</v>
+        <v>231610</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6056519731799376</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5519948537836892</v>
+        <v>0.5522068800766614</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6543100053936068</v>
+        <v>0.6614543948698373</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>372</v>
@@ -3921,19 +3921,19 @@
         <v>388128</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>361615</v>
+        <v>360195</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>413374</v>
+        <v>413581</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5891080066826685</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.548866400032066</v>
+        <v>0.5467108141136825</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.627426736103228</v>
+        <v>0.6277413807981718</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>143127</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>125875</v>
+        <v>124950</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>160195</v>
+        <v>158078</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5755109879950407</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5061386620865457</v>
+        <v>0.5024200738562162</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6441386698101755</v>
+        <v>0.635626190423065</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>230</v>
@@ -4046,19 +4046,19 @@
         <v>255900</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>235265</v>
+        <v>235544</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>273852</v>
+        <v>275423</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6597392681115586</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6065378999220005</v>
+        <v>0.6072571983080677</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7060216980115538</v>
+        <v>0.7100703178258113</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>356</v>
@@ -4067,19 +4067,19 @@
         <v>399028</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>373655</v>
+        <v>374667</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>426898</v>
+        <v>426396</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6268331908888128</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5869749382591111</v>
+        <v>0.5885638292812045</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6706145661006109</v>
+        <v>0.6698258980308389</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>105569</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>88501</v>
+        <v>90618</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>122821</v>
+        <v>123746</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4244890120049592</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3558613301898244</v>
+        <v>0.3643738095769346</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4938613379134542</v>
+        <v>0.4975799261437835</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>119</v>
@@ -4117,19 +4117,19 @@
         <v>131981</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>114029</v>
+        <v>112458</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>152616</v>
+        <v>152337</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3402607318884414</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2939783019884462</v>
+        <v>0.2899296821741886</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3934621000779995</v>
+        <v>0.3927428016919323</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>214</v>
@@ -4138,19 +4138,19 @@
         <v>237550</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>209680</v>
+        <v>210182</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>262923</v>
+        <v>261911</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3731668091111871</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3293854338993891</v>
+        <v>0.330174101969161</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4130250617408889</v>
+        <v>0.4114361707187954</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>1076322</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1021821</v>
+        <v>1016928</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1134753</v>
+        <v>1134576</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3162827125521234</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3002672945178352</v>
+        <v>0.2988294681374903</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3334530710047529</v>
+        <v>0.3334010025642102</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>964</v>
@@ -4263,19 +4263,19 @@
         <v>1038479</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>982689</v>
+        <v>980561</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1097956</v>
+        <v>1090976</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2939734526590244</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2781805060108101</v>
+        <v>0.2775779116784686</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3108101819283514</v>
+        <v>0.3088344503183942</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1964</v>
@@ -4284,19 +4284,19 @@
         <v>2114801</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2030632</v>
+        <v>2038234</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2189644</v>
+        <v>2188042</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3049197697790488</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2927839713769637</v>
+        <v>0.2938800589553052</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3157109080424497</v>
+        <v>0.3154798960279724</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2326716</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2268285</v>
+        <v>2268462</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2381217</v>
+        <v>2386110</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6837172874478766</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6665469289952473</v>
+        <v>0.66659899743579</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6997327054821648</v>
+        <v>0.7011705318625098</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2310</v>
@@ -4334,19 +4334,19 @@
         <v>2494081</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2434604</v>
+        <v>2441584</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2549871</v>
+        <v>2551999</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7060265473409756</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6891898180716485</v>
+        <v>0.6911655496816058</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7218194939891893</v>
+        <v>0.722422088321532</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4496</v>
@@ -4355,19 +4355,19 @@
         <v>4820797</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4745954</v>
+        <v>4747556</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4904966</v>
+        <v>4897364</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6950802302209511</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6842890919575502</v>
+        <v>0.6845201039720274</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7072160286230362</v>
+        <v>0.7061199410446944</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>161808</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>141568</v>
+        <v>143271</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>181300</v>
+        <v>184634</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.387610478077312</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3391246889661715</v>
+        <v>0.343204252116491</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4343026001653392</v>
+        <v>0.4422909451720948</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>159</v>
@@ -4723,19 +4723,19 @@
         <v>155696</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>138523</v>
+        <v>136466</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>175232</v>
+        <v>176700</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.39341451885247</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3500213094799642</v>
+        <v>0.3448232965358985</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4427778279140896</v>
+        <v>0.4464893195546314</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>309</v>
@@ -4744,19 +4744,19 @@
         <v>317504</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>292597</v>
+        <v>289841</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>344924</v>
+        <v>344088</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3904350786725013</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.359807444054533</v>
+        <v>0.356417879975346</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4241543505498435</v>
+        <v>0.423125549848197</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>255642</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>236150</v>
+        <v>232816</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>275882</v>
+        <v>274179</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.612389521922688</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5656973998346607</v>
+        <v>0.5577090548279052</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6608753110338285</v>
+        <v>0.656795747883509</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>245</v>
@@ -4794,19 +4794,19 @@
         <v>240059</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>220523</v>
+        <v>219055</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>257232</v>
+        <v>259289</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.60658548114753</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5572221720859104</v>
+        <v>0.5535106804453687</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6499786905200357</v>
+        <v>0.6551767034641014</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>486</v>
@@ -4815,19 +4815,19 @@
         <v>495701</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>468281</v>
+        <v>469117</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>520608</v>
+        <v>523364</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6095649213274986</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5758456494501564</v>
+        <v>0.5768744501518031</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6401925559454668</v>
+        <v>0.643582120024654</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>157594</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>135576</v>
+        <v>136017</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>177005</v>
+        <v>178886</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2694064913607336</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2317655254965532</v>
+        <v>0.2325200363998373</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3025892858726291</v>
+        <v>0.3058041632510053</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>133</v>
@@ -4940,19 +4940,19 @@
         <v>131174</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>111766</v>
+        <v>111724</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>150327</v>
+        <v>150104</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2335215923934015</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1989713803186196</v>
+        <v>0.1988967231216576</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2676190568922869</v>
+        <v>0.2672224676745955</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>285</v>
@@ -4961,19 +4961,19 @@
         <v>288768</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>260556</v>
+        <v>259638</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>320804</v>
+        <v>318220</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2518278449144976</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2272247950831018</v>
+        <v>0.2264239322122371</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2797658868579601</v>
+        <v>0.2775118735249787</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>427375</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>407964</v>
+        <v>406083</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>449393</v>
+        <v>448952</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7305935086392664</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6974107141273709</v>
+        <v>0.6941958367489949</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7682344745034467</v>
+        <v>0.7674799636001628</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>444</v>
@@ -5011,19 +5011,19 @@
         <v>430545</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>411392</v>
+        <v>411615</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>449953</v>
+        <v>449995</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7664784076065985</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7323809431077131</v>
+        <v>0.7327775323254045</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8010286196813806</v>
+        <v>0.8011032768783424</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>854</v>
@@ -5032,19 +5032,19 @@
         <v>857920</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>825884</v>
+        <v>828468</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>886132</v>
+        <v>887050</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7481721550855024</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.72023411314204</v>
+        <v>0.7224881264750207</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7727752049168982</v>
+        <v>0.7735760677877623</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>178710</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>158158</v>
+        <v>156555</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>202946</v>
+        <v>202200</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2678617489182449</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2370570256935862</v>
+        <v>0.2346542744189746</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3041877361606301</v>
+        <v>0.3030700084555972</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>126</v>
@@ -5157,19 +5157,19 @@
         <v>125027</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>105506</v>
+        <v>105233</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>145486</v>
+        <v>145655</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1896070550843235</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1600026176248351</v>
+        <v>0.1595895638255759</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2206337205600121</v>
+        <v>0.2208908311064743</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>296</v>
@@ -5178,19 +5178,19 @@
         <v>303737</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>275683</v>
+        <v>272671</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>333515</v>
+        <v>336329</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2289636697489869</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2078159888741337</v>
+        <v>0.205545393672393</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2514114589678721</v>
+        <v>0.2535323850113811</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>488462</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>464226</v>
+        <v>464972</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>509014</v>
+        <v>510617</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.732138251081755</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6958122638393708</v>
+        <v>0.6969299915444028</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7629429743064139</v>
+        <v>0.7653457255810254</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>537</v>
@@ -5228,19 +5228,19 @@
         <v>534372</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>513913</v>
+        <v>513744</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>553893</v>
+        <v>554166</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8103929449156765</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7793662794399878</v>
+        <v>0.7791091688935255</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8399973823751649</v>
+        <v>0.8404104361744241</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1003</v>
@@ -5249,19 +5249,19 @@
         <v>1022835</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>993057</v>
+        <v>990243</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1050889</v>
+        <v>1053901</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7710363302510131</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7485885410321279</v>
+        <v>0.7464676149886189</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7921840111258662</v>
+        <v>0.794454606327607</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>202487</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>177865</v>
+        <v>179773</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>227875</v>
+        <v>227701</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3188732597258213</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2800985817012566</v>
+        <v>0.2831044539984194</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3588539957386644</v>
+        <v>0.3585808152748804</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>120</v>
@@ -5374,19 +5374,19 @@
         <v>134113</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>113802</v>
+        <v>111786</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>155453</v>
+        <v>156740</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2083101824376655</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1767621308445484</v>
+        <v>0.1736304605029474</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2414568130387089</v>
+        <v>0.2434555536631418</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>304</v>
@@ -5395,19 +5395,19 @@
         <v>336599</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>304332</v>
+        <v>303274</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>371086</v>
+        <v>371144</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2632110466258397</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2379789946122211</v>
+        <v>0.2371514890288211</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2901785154420493</v>
+        <v>0.2902237808931873</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>432520</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>407132</v>
+        <v>407306</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>457142</v>
+        <v>455234</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6811267402741787</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6411460042613355</v>
+        <v>0.6414191847251195</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7199014182987433</v>
+        <v>0.7168955460015805</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>477</v>
@@ -5445,19 +5445,19 @@
         <v>509700</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>488360</v>
+        <v>487073</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>530011</v>
+        <v>532027</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7916898175623345</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7585431869612913</v>
+        <v>0.7565444463368584</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8232378691554517</v>
+        <v>0.8263695394970527</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>866</v>
@@ -5466,19 +5466,19 @@
         <v>942220</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>907733</v>
+        <v>907675</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>974487</v>
+        <v>975545</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7367889533741603</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7098214845579507</v>
+        <v>0.7097762191068128</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7620210053877788</v>
+        <v>0.7628485109711787</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>182451</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>158261</v>
+        <v>161320</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>205220</v>
+        <v>204912</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3834978942301668</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3326523508113355</v>
+        <v>0.3390807779464818</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4313554231141482</v>
+        <v>0.4307075956548863</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>120</v>
@@ -5591,19 +5591,19 @@
         <v>139099</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>118527</v>
+        <v>118959</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>161312</v>
+        <v>159304</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2817708692956392</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2400981542051187</v>
+        <v>0.2409726115060298</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3267664813598104</v>
+        <v>0.3226999414318769</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>280</v>
@@ -5612,19 +5612,19 @@
         <v>321551</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>290898</v>
+        <v>291029</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>350387</v>
+        <v>353263</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3316949283177495</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3000750147516594</v>
+        <v>0.3002105682540234</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3614413341967975</v>
+        <v>0.3644073035389109</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>293305</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>270536</v>
+        <v>270844</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>317495</v>
+        <v>314436</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6165021057698332</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5686445768858519</v>
+        <v>0.5692924043451137</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6673476491886646</v>
+        <v>0.6609192220535185</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>310</v>
@@ -5662,19 +5662,19 @@
         <v>354562</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>332349</v>
+        <v>334357</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>375134</v>
+        <v>374702</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7182291307043608</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6732335186401897</v>
+        <v>0.6773000585681231</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7599018457948815</v>
+        <v>0.7590273884939703</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>572</v>
@@ -5683,19 +5683,19 @@
         <v>647866</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>619030</v>
+        <v>616154</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>678519</v>
+        <v>678388</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6683050716822505</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6385586658032024</v>
+        <v>0.6355926964610891</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6999249852483406</v>
+        <v>0.6997894317459764</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>176060</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>159706</v>
+        <v>156198</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>195672</v>
+        <v>193068</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5296340769397476</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4804379017178171</v>
+        <v>0.4698851221183457</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5886336987440162</v>
+        <v>0.5807994888779577</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>150</v>
@@ -5808,19 +5808,19 @@
         <v>161671</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>142861</v>
+        <v>141742</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>182078</v>
+        <v>181517</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4291450523567696</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3792171137829153</v>
+        <v>0.3762469848254146</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4833153198087843</v>
+        <v>0.4818259600293218</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>319</v>
@@ -5829,19 +5829,19 @@
         <v>337730</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>311673</v>
+        <v>308306</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>365624</v>
+        <v>363083</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4762501542932632</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4395050588805369</v>
+        <v>0.4347576990700479</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5155837276163793</v>
+        <v>0.5120003729663588</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>156358</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>136746</v>
+        <v>139350</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>172712</v>
+        <v>176220</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4703659230602524</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4113663012559834</v>
+        <v>0.4192005111220423</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5195620982821827</v>
+        <v>0.5301148778816542</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>203</v>
@@ -5879,19 +5879,19 @@
         <v>215056</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>194649</v>
+        <v>195210</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>233866</v>
+        <v>234985</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5708549476432304</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5166846801912157</v>
+        <v>0.5181740399706789</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6207828862170849</v>
+        <v>0.6237530151745855</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>357</v>
@@ -5900,19 +5900,19 @@
         <v>371415</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>343521</v>
+        <v>346062</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>397472</v>
+        <v>400839</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5237498457067368</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4844162723836207</v>
+        <v>0.4879996270336413</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5604949411194633</v>
+        <v>0.5652423009299521</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>174197</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>161053</v>
+        <v>160545</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>188150</v>
+        <v>187477</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6822865636938283</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6308028268456439</v>
+        <v>0.6288158805964791</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7369375409465402</v>
+        <v>0.734300895083881</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>194</v>
@@ -6025,19 +6025,19 @@
         <v>259978</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>234569</v>
+        <v>238236</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>280406</v>
+        <v>281873</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6538706087819761</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5899646041653906</v>
+        <v>0.5991867252773434</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7052494895882062</v>
+        <v>0.7089370794518055</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>397</v>
@@ -6046,19 +6046,19 @@
         <v>434176</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>406397</v>
+        <v>406234</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>457731</v>
+        <v>459839</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6649823259043943</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6224369019483105</v>
+        <v>0.6221867858270681</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7010591890952105</v>
+        <v>0.7042887795911845</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>81117</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>67164</v>
+        <v>67837</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>94261</v>
+        <v>94769</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3177134363061717</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.26306245905346</v>
+        <v>0.265699104916119</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3691971731543561</v>
+        <v>0.3711841194035212</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>105</v>
@@ -6096,19 +6096,19 @@
         <v>137621</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>117193</v>
+        <v>115726</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>163030</v>
+        <v>159363</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3461293912180239</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2947505104117935</v>
+        <v>0.2910629205481945</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4100353958346093</v>
+        <v>0.4008132747226567</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>202</v>
@@ -6117,19 +6117,19 @@
         <v>218737</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>195182</v>
+        <v>193074</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>246516</v>
+        <v>246679</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3350176740956057</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2989408109047896</v>
+        <v>0.2957112204088154</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3775630980516895</v>
+        <v>0.3778132141729319</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>1233307</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1175723</v>
+        <v>1172326</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1288525</v>
+        <v>1286245</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3661746016955936</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3490777234842819</v>
+        <v>0.3480690443253909</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3825690033005749</v>
+        <v>0.3818921747083792</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1002</v>
@@ -6242,19 +6242,19 @@
         <v>1106757</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1047285</v>
+        <v>1053655</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1164151</v>
+        <v>1161616</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3136468105772449</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2967928495807023</v>
+        <v>0.2985981326533309</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.329911820625828</v>
+        <v>0.3291933258380119</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2190</v>
@@ -6263,19 +6263,19 @@
         <v>2340064</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2262419</v>
+        <v>2261572</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2421381</v>
+        <v>2417411</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3392991627975931</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3280409937916782</v>
+        <v>0.3279181109927571</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3510897375620266</v>
+        <v>0.3505141753951386</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2134778</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2079560</v>
+        <v>2081840</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2192362</v>
+        <v>2195759</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6338253983044063</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6174309966994251</v>
+        <v>0.6181078252916208</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6509222765157181</v>
+        <v>0.6519309556746091</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2321</v>
@@ -6313,19 +6313,19 @@
         <v>2421916</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2364522</v>
+        <v>2367057</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2481388</v>
+        <v>2475018</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6863531894227551</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.670088179374172</v>
+        <v>0.670806674161988</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7032071504192975</v>
+        <v>0.701401867346669</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4340</v>
@@ -6334,19 +6334,19 @@
         <v>4556694</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4475377</v>
+        <v>4479347</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4634339</v>
+        <v>4635186</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6607008372024069</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6489102624379733</v>
+        <v>0.6494858246048615</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6719590062083217</v>
+        <v>0.672081889007243</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>138445</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>108865</v>
+        <v>110933</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>168162</v>
+        <v>171912</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3480432942854679</v>
+        <v>0.3480432942854678</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2736803832363121</v>
+        <v>0.2788800585447878</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.422751067996762</v>
+        <v>0.4321784043845678</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>93</v>
@@ -6702,19 +6702,19 @@
         <v>160593</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>134673</v>
+        <v>135675</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>187327</v>
+        <v>184867</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.447567746475282</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3753311963811194</v>
+        <v>0.3781217920359395</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5220758599098195</v>
+        <v>0.5152186788534949</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>152</v>
@@ -6723,19 +6723,19 @@
         <v>299038</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>261908</v>
+        <v>258289</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>341616</v>
+        <v>338280</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3952424759644141</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3461674341388341</v>
+        <v>0.3413841267958697</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.451518981634134</v>
+        <v>0.4471095124306849</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>259336</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>229619</v>
+        <v>225869</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>288916</v>
+        <v>286848</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6519567057145321</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.577248932003238</v>
+        <v>0.5678215956154324</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7263196167636877</v>
+        <v>0.7211199414552124</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>112</v>
@@ -6773,19 +6773,19 @@
         <v>198219</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>171485</v>
+        <v>173945</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>224139</v>
+        <v>223137</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.552432253524718</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4779241400901805</v>
+        <v>0.4847813211465052</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6246688036188808</v>
+        <v>0.6218782079640605</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>222</v>
@@ -6794,19 +6794,19 @@
         <v>457555</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>414977</v>
+        <v>418313</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>494685</v>
+        <v>498304</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6047575240355857</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5484810183658662</v>
+        <v>0.5528904875693151</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.653832565861166</v>
+        <v>0.6586158732041304</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>142494</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>116108</v>
+        <v>118587</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>168698</v>
+        <v>170447</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3031792987435288</v>
+        <v>0.3031792987435287</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2470377956374387</v>
+        <v>0.2523138024683291</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3589329109902895</v>
+        <v>0.3626543853202322</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>140</v>
@@ -6919,19 +6919,19 @@
         <v>151699</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>132634</v>
+        <v>131849</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>173942</v>
+        <v>174801</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3034362337139065</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2653028218080082</v>
+        <v>0.2637325522393701</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.347927941232663</v>
+        <v>0.3496462604912196</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>226</v>
@@ -6940,19 +6940,19 @@
         <v>294193</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>260005</v>
+        <v>264310</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>329553</v>
+        <v>328209</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3033117313386608</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2680641749229354</v>
+        <v>0.2725024816533398</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3397680470725793</v>
+        <v>0.338382670065894</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>327505</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>301301</v>
+        <v>299552</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>353891</v>
+        <v>351412</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6968207012564713</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6410670890097107</v>
+        <v>0.6373456146797678</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7529622043625614</v>
+        <v>0.7476861975316708</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>319</v>
@@ -6990,19 +6990,19 @@
         <v>348237</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>325994</v>
+        <v>325135</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>367302</v>
+        <v>368087</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6965637662860934</v>
+        <v>0.6965637662860935</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.652072058767337</v>
+        <v>0.6503537395087806</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7346971781919918</v>
+        <v>0.7362674477606299</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>532</v>
@@ -7011,19 +7011,19 @@
         <v>675742</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>640382</v>
+        <v>641726</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>709930</v>
+        <v>705625</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6966882686613393</v>
+        <v>0.6966882686613391</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6602319529274208</v>
+        <v>0.6616173299341059</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7319358250770646</v>
+        <v>0.7274975183466602</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>185173</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>162219</v>
+        <v>160628</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>209832</v>
+        <v>209575</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3008054678141308</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2635173088975337</v>
+        <v>0.2609332408465885</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3408622076152203</v>
+        <v>0.3404454408193144</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>200</v>
@@ -7136,19 +7136,19 @@
         <v>145227</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>129089</v>
+        <v>128211</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>166183</v>
+        <v>163406</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2345291083077944</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2084676798838743</v>
+        <v>0.2070500548903531</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2683721920325207</v>
+        <v>0.2638880749972109</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>365</v>
@@ -7157,19 +7157,19 @@
         <v>330400</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>300119</v>
+        <v>302108</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>362263</v>
+        <v>363991</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2675697249553345</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2430473551677712</v>
+        <v>0.2446583478713741</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2933740280917368</v>
+        <v>0.2947729918583228</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>430418</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>405759</v>
+        <v>406016</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>453372</v>
+        <v>454963</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6991945321858691</v>
+        <v>0.699194532185869</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6591377923847797</v>
+        <v>0.6595545591806855</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7364826911024661</v>
+        <v>0.7390667591534114</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>642</v>
@@ -7207,19 +7207,19 @@
         <v>473999</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>453043</v>
+        <v>455820</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>490137</v>
+        <v>491015</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7654708916922057</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7316278079674794</v>
+        <v>0.7361119250027889</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7915323201161258</v>
+        <v>0.7929499451096468</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1019</v>
@@ -7228,19 +7228,19 @@
         <v>904417</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>872554</v>
+        <v>870826</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>934698</v>
+        <v>932709</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7324302750446655</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7066259719082632</v>
+        <v>0.7052270081416773</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7569526448322289</v>
+        <v>0.7553416521286259</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>232318</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>206495</v>
+        <v>206669</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>257302</v>
+        <v>256704</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3326494841379261</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2956749740331357</v>
+        <v>0.2959243806393764</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3684241157090253</v>
+        <v>0.36756711761423</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>306</v>
@@ -7353,19 +7353,19 @@
         <v>195724</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>176179</v>
+        <v>176137</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>214610</v>
+        <v>214010</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2669687037358265</v>
+        <v>0.2669687037358266</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2403099421155943</v>
+        <v>0.2402523371097176</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2927297836037941</v>
+        <v>0.2919122242317986</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>530</v>
@@ -7374,19 +7374,19 @@
         <v>428041</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>396854</v>
+        <v>393864</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>459212</v>
+        <v>459369</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.299011961061466</v>
+        <v>0.2990119610614659</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.277225673952599</v>
+        <v>0.2751367670332811</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3207865079274829</v>
+        <v>0.3208960486295601</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>466068</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>441084</v>
+        <v>441682</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>491891</v>
+        <v>491717</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6673505158620741</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6315758842909749</v>
+        <v>0.6324328823857697</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7043250259668644</v>
+        <v>0.7040756193606235</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>829</v>
@@ -7424,19 +7424,19 @@
         <v>537409</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>518523</v>
+        <v>519123</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>556954</v>
+        <v>556996</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7330312962641733</v>
+        <v>0.7330312962641734</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7072702163962059</v>
+        <v>0.7080877757682014</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7596900578844057</v>
+        <v>0.7597476628902826</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1268</v>
@@ -7445,19 +7445,19 @@
         <v>1003478</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>972307</v>
+        <v>972150</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1034665</v>
+        <v>1037655</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7009880389385341</v>
+        <v>0.7009880389385339</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.679213492072517</v>
+        <v>0.6791039513704398</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7227743260474009</v>
+        <v>0.7248632329667188</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>215610</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>192442</v>
+        <v>193184</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>238697</v>
+        <v>237658</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3557103814800804</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3174870882033445</v>
+        <v>0.3187118744163902</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3937982921802423</v>
+        <v>0.3920837419514086</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>270</v>
@@ -7570,19 +7570,19 @@
         <v>164682</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>147476</v>
+        <v>148454</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>182452</v>
+        <v>180627</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2723725548529925</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2439155356357726</v>
+        <v>0.2455331673649608</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3017628607589738</v>
+        <v>0.2987452169102502</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>509</v>
@@ -7591,19 +7591,19 @@
         <v>380292</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>351833</v>
+        <v>354485</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>408768</v>
+        <v>409170</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3140937611406755</v>
+        <v>0.3140937611406754</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2905884019450213</v>
+        <v>0.2927786892169463</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3376126711411612</v>
+        <v>0.3379445210473436</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>390530</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>367443</v>
+        <v>368482</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>413698</v>
+        <v>412956</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6442896185199195</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6062017078197579</v>
+        <v>0.6079162580485911</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6825129117966555</v>
+        <v>0.6812881255836097</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>726</v>
@@ -7641,19 +7641,19 @@
         <v>439938</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>422168</v>
+        <v>423993</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>457144</v>
+        <v>456166</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7276274451470075</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6982371392410263</v>
+        <v>0.7012547830897498</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7560844643642275</v>
+        <v>0.7544668326350392</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1147</v>
@@ -7662,19 +7662,19 @@
         <v>830468</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>801992</v>
+        <v>801590</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>858927</v>
+        <v>856275</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6859062388593247</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6623873288588389</v>
+        <v>0.6620554789526562</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7094115980549787</v>
+        <v>0.7072213107830538</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>156029</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>139895</v>
+        <v>140366</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>174179</v>
+        <v>173983</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3852998537505732</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3454595891569491</v>
+        <v>0.3466220129479294</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4301215778590934</v>
+        <v>0.4296363609153572</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>304</v>
@@ -7787,19 +7787,19 @@
         <v>167504</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>153182</v>
+        <v>152149</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>181579</v>
+        <v>181901</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3839641731296429</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3511344920981525</v>
+        <v>0.3487662783524272</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.416227815069747</v>
+        <v>0.4169661704494167</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>523</v>
@@ -7808,19 +7808,19 @@
         <v>323533</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>302658</v>
+        <v>300852</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>346040</v>
+        <v>346075</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3846071672517343</v>
+        <v>0.3846071672517344</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3597910063710235</v>
+        <v>0.3576439546079324</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4113629611321235</v>
+        <v>0.4114044267502108</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>248925</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>230775</v>
+        <v>230971</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265059</v>
+        <v>264588</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6147001462494269</v>
+        <v>0.6147001462494267</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5698784221409063</v>
+        <v>0.5703636390846427</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6545404108430509</v>
+        <v>0.6533779870520705</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>518</v>
@@ -7858,19 +7858,19 @@
         <v>268746</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>254671</v>
+        <v>254349</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>283068</v>
+        <v>284101</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6160358268703571</v>
+        <v>0.6160358268703572</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5837721849302528</v>
+        <v>0.5830338295505832</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6488655079018473</v>
+        <v>0.651233721647572</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>867</v>
@@ -7879,19 +7879,19 @@
         <v>517671</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>495164</v>
+        <v>495129</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>538546</v>
+        <v>540352</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6153928327482656</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5886370388678764</v>
+        <v>0.5885955732497892</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6402089936289765</v>
+        <v>0.6423560453920675</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>172435</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>157261</v>
+        <v>158645</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>186123</v>
+        <v>186812</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5583481997997501</v>
+        <v>0.55834819979975</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5092149680392722</v>
+        <v>0.5136937045736037</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6026702195402194</v>
+        <v>0.6049013766264544</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>545</v>
@@ -8004,19 +8004,19 @@
         <v>295221</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>279617</v>
+        <v>279594</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>311092</v>
+        <v>309127</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6394570326514151</v>
+        <v>0.6394570326514148</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6056579990237003</v>
+        <v>0.6056085728470626</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6738344825678745</v>
+        <v>0.6695794635793467</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>801</v>
@@ -8025,19 +8025,19 @@
         <v>467656</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>444682</v>
+        <v>448219</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>488082</v>
+        <v>489523</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6069472977552256</v>
+        <v>0.6069472977552254</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5771303605532065</v>
+        <v>0.581721422231513</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6334570932423151</v>
+        <v>0.6353279978636064</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>136396</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>122708</v>
+        <v>122019</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>151570</v>
+        <v>150186</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4416518002002499</v>
+        <v>0.4416518002002498</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3973297804597805</v>
+        <v>0.3950986233735455</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4907850319607277</v>
+        <v>0.4863062954263961</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>333</v>
@@ -8075,19 +8075,19 @@
         <v>166453</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>150582</v>
+        <v>152547</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>182057</v>
+        <v>182080</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.3605429673485849</v>
+        <v>0.360542967348585</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3261655174321255</v>
+        <v>0.3304205364206533</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3943420009762993</v>
+        <v>0.3943914271529377</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>534</v>
@@ -8096,19 +8096,19 @@
         <v>302849</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>282423</v>
+        <v>280982</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>325823</v>
+        <v>322286</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3930527022447745</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3665429067576847</v>
+        <v>0.3646720021363936</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4228696394467933</v>
+        <v>0.418278577768487</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>1242504</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1184066</v>
+        <v>1179511</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1311112</v>
+        <v>1309941</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3548306601547617</v>
+        <v>0.3548306601547618</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3381419319122425</v>
+        <v>0.336841231192187</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3744234534685325</v>
+        <v>0.3740889906060939</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1858</v>
@@ -8221,19 +8221,19 @@
         <v>1280649</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1225276</v>
+        <v>1227183</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1326367</v>
+        <v>1332685</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3448489100775312</v>
+        <v>0.3448489100775313</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3299383697459097</v>
+        <v>0.3304517592286549</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3571596833465077</v>
+        <v>0.3588611141365993</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3106</v>
@@ -8242,19 +8242,19 @@
         <v>2523153</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2445797</v>
+        <v>2449622</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2598370</v>
+        <v>2609025</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3496931644556341</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3389720938003011</v>
+        <v>0.339502133854407</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3601177515336724</v>
+        <v>0.3615944727619541</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2259178</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2190570</v>
+        <v>2191741</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2317616</v>
+        <v>2322171</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6451693398452382</v>
+        <v>0.6451693398452384</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6255765465314675</v>
+        <v>0.6259110093939066</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6618580680877575</v>
+        <v>0.6631587688078134</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3479</v>
@@ -8292,19 +8292,19 @@
         <v>2433003</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2387285</v>
+        <v>2380967</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2488376</v>
+        <v>2486469</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6551510899224687</v>
+        <v>0.6551510899224688</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6428403166534924</v>
+        <v>0.6411388858634007</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6700616302540903</v>
+        <v>0.669548240771345</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5589</v>
@@ -8313,19 +8313,19 @@
         <v>4692182</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4616965</v>
+        <v>4606310</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4769538</v>
+        <v>4765713</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6503068355443659</v>
+        <v>0.650306835544366</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6398822484663275</v>
+        <v>0.6384055272380459</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6610279061996992</v>
+        <v>0.6604978661455929</v>
       </c>
     </row>
     <row r="27">
